--- a/Classes/CBS592/BuildingPrimingExperiment/Excel data.xlsx
+++ b/Classes/CBS592/BuildingPrimingExperiment/Excel data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Dropbox\Classes\FoundationsBehavioural2\week2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjpa\Desktop\politzerahles.github.io\Classes\CBS592\BuildingPrimingExperiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17E1265-8573-4622-8933-2241085F29FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6615"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,25 +23,36 @@
     <definedName name="nums" localSheetId="1">Sheet2!$A$2:$A$31</definedName>
     <definedName name="tuihua_1" localSheetId="4">Sheet5!$B$3:$J$35</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="nums" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="nums" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\sjpolit\Downloads\nums.txt">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="tuihua" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="tuihua" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\sjpolit\Downloads\tuihua.txt">
       <textFields count="9">
         <textField/>
@@ -211,113 +223,113 @@
     <t>Rater 5 adjusted</t>
   </si>
   <si>
-    <t>Subject1</t>
-  </si>
-  <si>
-    <t>Subject2</t>
-  </si>
-  <si>
-    <t>Subject3</t>
-  </si>
-  <si>
-    <t>Subject4</t>
-  </si>
-  <si>
-    <t>Subject5</t>
-  </si>
-  <si>
-    <t>Subject6</t>
-  </si>
-  <si>
-    <t>Subject7</t>
-  </si>
-  <si>
-    <t>Subject8</t>
-  </si>
-  <si>
-    <t>Subject9</t>
-  </si>
-  <si>
-    <t>Subject10</t>
-  </si>
-  <si>
-    <t>Subject11</t>
-  </si>
-  <si>
-    <t>Subject12</t>
-  </si>
-  <si>
-    <t>Subject13</t>
-  </si>
-  <si>
-    <t>Subject14</t>
-  </si>
-  <si>
-    <t>Subject15</t>
-  </si>
-  <si>
-    <t>Subject16</t>
-  </si>
-  <si>
-    <t>Subject17</t>
-  </si>
-  <si>
-    <t>Subject18</t>
-  </si>
-  <si>
-    <t>Subject19</t>
-  </si>
-  <si>
-    <t>Subject20</t>
-  </si>
-  <si>
-    <t>Subject21</t>
-  </si>
-  <si>
-    <t>Subject22</t>
-  </si>
-  <si>
-    <t>Subject23</t>
-  </si>
-  <si>
-    <t>Subject24</t>
-  </si>
-  <si>
-    <t>Subject25</t>
-  </si>
-  <si>
-    <t>Subject26</t>
-  </si>
-  <si>
-    <t>Subject27</t>
-  </si>
-  <si>
-    <t>Subject28</t>
-  </si>
-  <si>
-    <t>Subject29</t>
-  </si>
-  <si>
-    <t>Subject30</t>
-  </si>
-  <si>
-    <t>Subject31</t>
-  </si>
-  <si>
-    <t>Subject32</t>
-  </si>
-  <si>
-    <t>Subject33</t>
-  </si>
-  <si>
     <t>Voice Onset Time (milliseconds)</t>
+  </si>
+  <si>
+    <t>Participant1</t>
+  </si>
+  <si>
+    <t>Participant2</t>
+  </si>
+  <si>
+    <t>Participant3</t>
+  </si>
+  <si>
+    <t>Participant4</t>
+  </si>
+  <si>
+    <t>Participant5</t>
+  </si>
+  <si>
+    <t>Participant6</t>
+  </si>
+  <si>
+    <t>Participant7</t>
+  </si>
+  <si>
+    <t>Participant8</t>
+  </si>
+  <si>
+    <t>Participant9</t>
+  </si>
+  <si>
+    <t>Participant10</t>
+  </si>
+  <si>
+    <t>Participant11</t>
+  </si>
+  <si>
+    <t>Participant12</t>
+  </si>
+  <si>
+    <t>Participant13</t>
+  </si>
+  <si>
+    <t>Participant14</t>
+  </si>
+  <si>
+    <t>Participant15</t>
+  </si>
+  <si>
+    <t>Participant16</t>
+  </si>
+  <si>
+    <t>Participant17</t>
+  </si>
+  <si>
+    <t>Participant18</t>
+  </si>
+  <si>
+    <t>Participant19</t>
+  </si>
+  <si>
+    <t>Participant20</t>
+  </si>
+  <si>
+    <t>Participant21</t>
+  </si>
+  <si>
+    <t>Participant22</t>
+  </si>
+  <si>
+    <t>Participant23</t>
+  </si>
+  <si>
+    <t>Participant24</t>
+  </si>
+  <si>
+    <t>Participant25</t>
+  </si>
+  <si>
+    <t>Participant26</t>
+  </si>
+  <si>
+    <t>Participant27</t>
+  </si>
+  <si>
+    <t>Participant28</t>
+  </si>
+  <si>
+    <t>Participant29</t>
+  </si>
+  <si>
+    <t>Participant30</t>
+  </si>
+  <si>
+    <t>Participant31</t>
+  </si>
+  <si>
+    <t>Participant32</t>
+  </si>
+  <si>
+    <t>Participant33</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +341,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -523,14 +541,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -542,11 +559,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -568,11 +580,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="nums" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="nums" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="tuihua_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tuihua_1" connectionId="2" xr16:uid="{00000000-0016-0000-0400-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -837,11 +849,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,7 +885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1047,17 +1059,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="18"/>
+    <col min="7" max="7" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1079,7 +1091,7 @@
       <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="16" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1102,7 +1114,7 @@
       <c r="F2">
         <v>5</v>
       </c>
-      <c r="G2" s="19"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1123,7 +1135,7 @@
       <c r="F3">
         <v>4</v>
       </c>
-      <c r="G3" s="20"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1144,7 +1156,7 @@
       <c r="F4">
         <v>5</v>
       </c>
-      <c r="G4" s="20"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1165,7 +1177,7 @@
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5" s="20"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1186,7 +1198,7 @@
       <c r="F6">
         <v>5</v>
       </c>
-      <c r="G6" s="20"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1207,7 +1219,7 @@
       <c r="F7">
         <v>2</v>
       </c>
-      <c r="G7" s="20"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1228,7 +1240,7 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="20"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1249,7 +1261,7 @@
       <c r="F9">
         <v>5</v>
       </c>
-      <c r="G9" s="20"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1270,7 +1282,7 @@
       <c r="F10">
         <v>4</v>
       </c>
-      <c r="G10" s="20"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1291,7 +1303,7 @@
       <c r="F11">
         <v>2</v>
       </c>
-      <c r="G11" s="20"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1312,7 +1324,7 @@
       <c r="F12">
         <v>5</v>
       </c>
-      <c r="G12" s="20"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1333,7 +1345,7 @@
       <c r="F13">
         <v>6</v>
       </c>
-      <c r="G13" s="20"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1354,7 +1366,7 @@
       <c r="F14">
         <v>4</v>
       </c>
-      <c r="G14" s="20"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1375,7 +1387,7 @@
       <c r="F15">
         <v>2</v>
       </c>
-      <c r="G15" s="20"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1396,7 +1408,7 @@
       <c r="F16">
         <v>5</v>
       </c>
-      <c r="G16" s="20"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -1417,7 +1429,7 @@
       <c r="F17">
         <v>5</v>
       </c>
-      <c r="G17" s="20"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -1438,7 +1450,7 @@
       <c r="F18">
         <v>4</v>
       </c>
-      <c r="G18" s="20"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -1459,7 +1471,7 @@
       <c r="F19">
         <v>4</v>
       </c>
-      <c r="G19" s="20"/>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -1480,7 +1492,7 @@
       <c r="F20">
         <v>4</v>
       </c>
-      <c r="G20" s="20"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -1501,7 +1513,7 @@
       <c r="F21">
         <v>5</v>
       </c>
-      <c r="G21" s="20"/>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1522,7 +1534,7 @@
       <c r="F22">
         <v>5</v>
       </c>
-      <c r="G22" s="20"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -1543,7 +1555,7 @@
       <c r="F23">
         <v>2</v>
       </c>
-      <c r="G23" s="20"/>
+      <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -1564,7 +1576,7 @@
       <c r="F24">
         <v>2</v>
       </c>
-      <c r="G24" s="20"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -1585,7 +1597,7 @@
       <c r="F25">
         <v>2</v>
       </c>
-      <c r="G25" s="20"/>
+      <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -1606,7 +1618,7 @@
       <c r="F26">
         <v>2</v>
       </c>
-      <c r="G26" s="20"/>
+      <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -1627,7 +1639,7 @@
       <c r="F27">
         <v>5</v>
       </c>
-      <c r="G27" s="20"/>
+      <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -1648,7 +1660,7 @@
       <c r="F28">
         <v>6</v>
       </c>
-      <c r="G28" s="20"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -1669,7 +1681,7 @@
       <c r="F29">
         <v>4</v>
       </c>
-      <c r="G29" s="20"/>
+      <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -1690,7 +1702,7 @@
       <c r="F30">
         <v>4</v>
       </c>
-      <c r="G30" s="20"/>
+      <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -1711,7 +1723,7 @@
       <c r="F31">
         <v>1</v>
       </c>
-      <c r="G31" s="20"/>
+      <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -1732,7 +1744,7 @@
       <c r="F32">
         <v>2</v>
       </c>
-      <c r="G32" s="20"/>
+      <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -1753,7 +1765,7 @@
       <c r="F33">
         <v>1</v>
       </c>
-      <c r="G33" s="20"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -1774,7 +1786,7 @@
       <c r="F34">
         <v>4</v>
       </c>
-      <c r="G34" s="20"/>
+      <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -1795,7 +1807,7 @@
       <c r="F35">
         <v>5</v>
       </c>
-      <c r="G35" s="20"/>
+      <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -1816,7 +1828,7 @@
       <c r="F36" t="s">
         <v>36</v>
       </c>
-      <c r="G36" s="20"/>
+      <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -1837,7 +1849,7 @@
       <c r="F37">
         <v>4</v>
       </c>
-      <c r="G37" s="21"/>
+      <c r="G37" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1845,11 +1857,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:S10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1899,22 +1911,22 @@
       <c r="F2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="16" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1942,7 +1954,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="11"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1964,11 +1976,8 @@
         <v>3</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="12"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1990,11 +1999,8 @@
         <v>2</v>
       </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="12"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2016,11 +2022,8 @@
         <v>3</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="12"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2042,11 +2045,8 @@
         <v>2</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="12"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -2068,11 +2068,8 @@
         <v>2</v>
       </c>
       <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="12"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2094,11 +2091,8 @@
         <v>3</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="12"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -2120,11 +2114,8 @@
         <v>2</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="12"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -2146,11 +2137,8 @@
         <v>3</v>
       </c>
       <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="12"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="11"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -2172,11 +2160,8 @@
         <v>2</v>
       </c>
       <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="12"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="11"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -2198,11 +2183,8 @@
         <v>3</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="12"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -2224,11 +2206,8 @@
         <v>4</v>
       </c>
       <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="12"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="11"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -2250,11 +2229,8 @@
         <v>4</v>
       </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="12"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="11"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -2276,11 +2252,8 @@
         <v>36</v>
       </c>
       <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="12"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="11"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -2302,11 +2275,8 @@
         <v>3</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="12"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -2328,11 +2298,8 @@
         <v>3</v>
       </c>
       <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="12"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="11"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -2354,11 +2321,8 @@
         <v>4</v>
       </c>
       <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="12"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="11"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -2380,11 +2344,8 @@
         <v>3</v>
       </c>
       <c r="G20" s="5"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="12"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="11"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -2406,11 +2367,8 @@
         <v>4</v>
       </c>
       <c r="G21" s="5"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="12"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="11"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -2432,11 +2390,8 @@
         <v>3</v>
       </c>
       <c r="G22" s="5"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="12"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="11"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -2458,11 +2413,8 @@
         <v>4</v>
       </c>
       <c r="G23" s="5"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="12"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="11"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -2484,11 +2436,8 @@
         <v>2</v>
       </c>
       <c r="G24" s="5"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="12"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="11"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -2510,11 +2459,8 @@
         <v>2</v>
       </c>
       <c r="G25" s="5"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="12"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="11"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -2536,11 +2482,8 @@
         <v>3</v>
       </c>
       <c r="G26" s="5"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="12"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="11"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -2562,11 +2505,8 @@
         <v>4</v>
       </c>
       <c r="G27" s="5"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="12"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="11"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -2588,11 +2528,8 @@
         <v>2</v>
       </c>
       <c r="G28" s="5"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="12"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="11"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -2614,11 +2551,8 @@
         <v>4</v>
       </c>
       <c r="G29" s="5"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="12"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="11"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -2640,11 +2574,8 @@
         <v>4</v>
       </c>
       <c r="G30" s="5"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="12"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="11"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -2666,11 +2597,8 @@
         <v>4</v>
       </c>
       <c r="G31" s="5"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="12"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="11"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -2692,11 +2620,8 @@
         <v>4</v>
       </c>
       <c r="G32" s="5"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="12"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="11"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -2718,11 +2643,8 @@
         <v>3</v>
       </c>
       <c r="G33" s="5"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="12"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="11"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -2744,11 +2666,8 @@
         <v>4</v>
       </c>
       <c r="G34" s="5"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="12"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="11"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -2770,11 +2689,8 @@
         <v>4</v>
       </c>
       <c r="G35" s="5"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="12"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="11"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -2796,11 +2712,8 @@
         <v>4</v>
       </c>
       <c r="G36" s="5"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="12"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="11"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -2822,11 +2735,8 @@
         <v>36</v>
       </c>
       <c r="G37" s="5"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="12"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="11"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -2847,12 +2757,12 @@
       <c r="F38">
         <v>3</v>
       </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="13"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2860,31 +2770,31 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="B1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
@@ -2925,7 +2835,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3">
         <v>0.46</v>
@@ -2957,7 +2867,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2989,7 +2899,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>0.12</v>
@@ -3021,7 +2931,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6">
         <v>0.02</v>
@@ -3053,7 +2963,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3085,7 +2995,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3117,7 +3027,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B9">
         <v>0.16</v>
@@ -3149,7 +3059,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10">
         <v>0.52</v>
@@ -3181,7 +3091,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3213,7 +3123,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12">
         <v>0.02</v>
@@ -3245,7 +3155,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B13">
         <v>0.18</v>
@@ -3277,7 +3187,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14">
         <v>0.08</v>
@@ -3309,7 +3219,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B15">
         <v>0.08</v>
@@ -3341,7 +3251,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3373,7 +3283,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B17">
         <v>0.02</v>
@@ -3405,7 +3315,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3437,7 +3347,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B19">
         <v>0.02</v>
@@ -3469,7 +3379,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B20">
         <v>0.02</v>
@@ -3501,7 +3411,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3533,7 +3443,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B22">
         <v>0.06</v>
@@ -3565,7 +3475,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3597,7 +3507,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B24">
         <v>0.02</v>
@@ -3629,7 +3539,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3661,7 +3571,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3693,7 +3603,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B27">
         <v>0.04</v>
@@ -3725,7 +3635,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3757,7 +3667,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B29">
         <v>0.1</v>
@@ -3789,7 +3699,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B30">
         <v>0.44</v>
@@ -3821,7 +3731,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B31">
         <v>0.06</v>
@@ -3853,7 +3763,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B32">
         <v>0.08</v>
@@ -3885,7 +3795,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B33">
         <v>0.06</v>
@@ -3917,7 +3827,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3949,7 +3859,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B35">
         <v>0.02</v>
@@ -3983,6 +3893,7 @@
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>